--- a/status.xlsx
+++ b/status.xlsx
@@ -451,7 +451,7 @@
   <dimension ref="A2:F24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D21" sqref="D21"/>
+      <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -546,7 +546,7 @@
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="C15" s="3" t="s">
+      <c r="C15" s="1" t="s">
         <v>14</v>
       </c>
       <c r="F15" t="s">
@@ -554,7 +554,7 @@
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="C16" s="3" t="s">
+      <c r="C16" s="1" t="s">
         <v>15</v>
       </c>
       <c r="F16" t="s">
@@ -570,7 +570,7 @@
       </c>
     </row>
     <row r="18" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C18" s="3" t="s">
+      <c r="C18" s="1" t="s">
         <v>17</v>
       </c>
     </row>

--- a/status.xlsx
+++ b/status.xlsx
@@ -451,7 +451,7 @@
   <dimension ref="A2:F24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C15" sqref="C15"/>
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -525,7 +525,7 @@
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="C12" s="4" t="s">
+      <c r="C12" s="1" t="s">
         <v>11</v>
       </c>
       <c r="F12" t="s">
@@ -533,7 +533,7 @@
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="C13" s="3" t="s">
+      <c r="C13" s="1" t="s">
         <v>12</v>
       </c>
     </row>

--- a/status.xlsx
+++ b/status.xlsx
@@ -451,7 +451,7 @@
   <dimension ref="A2:F24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C17" activeCellId="2" sqref="C24 C14 C17"/>
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -501,7 +501,7 @@
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="C8" s="4" t="s">
+      <c r="C8" s="1" t="s">
         <v>7</v>
       </c>
       <c r="F8" t="s">
